--- a/ServerAPI/NovelList.xlsx
+++ b/ServerAPI/NovelList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tienn\OneDrive\Desktop\Server\ServerAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC21871A-CE30-4C68-A718-E2E934EC6BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7FCDFF-112F-414B-9D5C-6D5013CCE1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10515" yWindow="1050" windowWidth="16335" windowHeight="11385" xr2:uid="{58EBFAAB-C971-4245-99AF-D068937633E7}"/>
+    <workbookView xWindow="10860" yWindow="1395" windowWidth="16335" windowHeight="11385" xr2:uid="{58EBFAAB-C971-4245-99AF-D068937633E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>easternNovel</t>
   </si>
@@ -50,21 +50,9 @@
     <t>iso3</t>
   </si>
   <si>
-    <t>admin_name</t>
-  </si>
-  <si>
-    <t>capital</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>genre</t>
-  </si>
-  <si>
     <t>Invincible</t>
   </si>
   <si>
@@ -110,30 +98,9 @@
     <t>I Shall Seal the Heaven</t>
   </si>
   <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
     <t>CN</t>
   </si>
   <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>MX</t>
-  </si>
-  <si>
     <t>JPN</t>
   </si>
   <si>
@@ -195,6 +162,12 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>easternN</t>
+  </si>
+  <si>
+    <t>easternN_name</t>
   </si>
 </sst>
 </file>
@@ -549,7 +522,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,13 +535,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -577,45 +550,45 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>305</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
       </c>
       <c r="J2">
         <v>37977000</v>
@@ -626,31 +599,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>140</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>34540000</v>
@@ -661,10 +634,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>665</v>
@@ -673,19 +646,19 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>29617000</v>
@@ -696,31 +669,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>373</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>431</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>23355000</v>
@@ -731,31 +704,31 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>234</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>23088000</v>
@@ -766,31 +739,31 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>88</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J7">
         <v>22120000</v>
@@ -801,31 +774,31 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>739</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J8">
         <v>22046000</v>
@@ -836,31 +809,31 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>53</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>333</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>21794000</v>
@@ -871,31 +844,31 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>954</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>655</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>20996000</v>
@@ -906,31 +879,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>854</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>442</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>20902000</v>
@@ -941,31 +914,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>676</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>19433000</v>
